--- a/me/1.training_sass/05-control-directive.xlsx
+++ b/me/1.training_sass/05-control-directive.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C39C3A-3B88-44EC-8DC8-4E3E62BB7CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA363490-17DA-4466-8DFE-029F9F6701B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
+    <sheet name="for" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>構成</t>
   </si>
@@ -136,6 +137,102 @@
       <t xml:space="preserve">} </t>
     </r>
   </si>
+  <si>
+    <t>02-for</t>
+  </si>
+  <si>
+    <t>02-for-01.scss</t>
+  </si>
+  <si>
+    <t>@for $i from 1 through 6 { // 1 2 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h#{$i} { </t>
+  </si>
+  <si>
+    <t>        font-size: 15px * $i;</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>02-for-01.css</t>
+  </si>
+  <si>
+    <t>h1 {</t>
+  </si>
+  <si>
+    <t>  font-size: 15px; }</t>
+  </si>
+  <si>
+    <t>h2 {</t>
+  </si>
+  <si>
+    <t>  font-size: 30px; }</t>
+  </si>
+  <si>
+    <t>h3 {</t>
+  </si>
+  <si>
+    <t>  font-size: 45px; }</t>
+  </si>
+  <si>
+    <t>h4 {</t>
+  </si>
+  <si>
+    <t>  font-size: 60px; }</t>
+  </si>
+  <si>
+    <t>h5 {</t>
+  </si>
+  <si>
+    <t>  font-size: 75px; }</t>
+  </si>
+  <si>
+    <t>h6 {</t>
+  </si>
+  <si>
+    <t>  font-size: 90px; }</t>
+  </si>
+  <si>
+    <t>02-for-02.scss</t>
+  </si>
+  <si>
+    <t>$headerElement  : h1, h2, h3, p, h5;</t>
+  </si>
+  <si>
+    <t>$fontSize       : 55px, 50px, 40px, 20px, 10px;</t>
+  </si>
+  <si>
+    <t>$len            : length($headerElement);       // 5</t>
+  </si>
+  <si>
+    <t>@for $i from 1 through $len {</t>
+  </si>
+  <si>
+    <t>    #{ nth($headerElement, $i) } {</t>
+  </si>
+  <si>
+    <t>        font-size: #{ nth($fontSize, $i) };</t>
+  </si>
+  <si>
+    <t>02-for-02.css</t>
+  </si>
+  <si>
+    <t>  font-size: 55px; }</t>
+  </si>
+  <si>
+    <t>  font-size: 50px; }</t>
+  </si>
+  <si>
+    <t>  font-size: 40px; }</t>
+  </si>
+  <si>
+    <t>  font-size: 20px; }</t>
+  </si>
+  <si>
+    <t>  font-size: 10px; }</t>
+  </si>
 </sst>
 </file>
 
@@ -157,12 +254,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -257,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -270,6 +373,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,4 +957,679 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C8AD3A-64CD-4DB2-A124-2BA295A672BA}">
+  <dimension ref="A2:P92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/05-control-directive.xlsx
+++ b/me/1.training_sass/05-control-directive.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA363490-17DA-4466-8DFE-029F9F6701B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F6ACD-A446-49B6-A9FD-B6EB0C623827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
     <sheet name="for" sheetId="2" r:id="rId2"/>
+    <sheet name="While" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
   <si>
     <t>構成</t>
   </si>
@@ -232,6 +233,27 @@
   </si>
   <si>
     <t>  font-size: 10px; }</t>
+  </si>
+  <si>
+    <t>03-while</t>
+  </si>
+  <si>
+    <t>03-while.scss</t>
+  </si>
+  <si>
+    <t>$i: 1;</t>
+  </si>
+  <si>
+    <t>$len: length($headerElement);</t>
+  </si>
+  <si>
+    <t>    $i: $i + 1;</t>
+  </si>
+  <si>
+    <t>03-while.css</t>
+  </si>
+  <si>
+    <t>@while $i &lt;= $len {</t>
   </si>
 </sst>
 </file>
@@ -963,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C8AD3A-64CD-4DB2-A124-2BA295A672BA}">
   <dimension ref="A2:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,4 +1654,371 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23139362-4412-4762-991B-A15A83FF1700}">
+  <dimension ref="A2:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/05-control-directive.xlsx
+++ b/me/1.training_sass/05-control-directive.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F6ACD-A446-49B6-A9FD-B6EB0C623827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4952672E-17F1-4FA3-9CDD-B0B70B066FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="1" r:id="rId1"/>
     <sheet name="for" sheetId="2" r:id="rId2"/>
     <sheet name="While" sheetId="3" r:id="rId3"/>
+    <sheet name="Each" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="112">
   <si>
     <t>構成</t>
   </si>
@@ -255,6 +256,159 @@
   <si>
     <t>@while $i &lt;= $len {</t>
   </si>
+  <si>
+    <t>04-each</t>
+  </si>
+  <si>
+    <t>04-each-01.scss</t>
+  </si>
+  <si>
+    <t>$icons: puma, sea-slug, egret, salamander;</t>
+  </si>
+  <si>
+    <t>@each $icon in $icons {</t>
+  </si>
+  <si>
+    <t>  .#{$icon}-icon {</t>
+  </si>
+  <si>
+    <t>    background-image: url('/images/#{$icon}.png');</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>04-each-01.css</t>
+  </si>
+  <si>
+    <t>.puma-icon {</t>
+  </si>
+  <si>
+    <t>  background-image: url("/images/puma.png"); }</t>
+  </si>
+  <si>
+    <t>.sea-slug-icon {</t>
+  </si>
+  <si>
+    <t>  background-image: url("/images/sea-slug.png"); }</t>
+  </si>
+  <si>
+    <t>.egret-icon {</t>
+  </si>
+  <si>
+    <t>  background-image: url("/images/egret.png"); }</t>
+  </si>
+  <si>
+    <t>.salamander-icon {</t>
+  </si>
+  <si>
+    <t>  background-image: url("/images/salamander.png"); }</t>
+  </si>
+  <si>
+    <t>04-each-02.scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@each $animal, $color, $cursor </t>
+  </si>
+  <si>
+    <t>    in (puma, black, default),</t>
+  </si>
+  <si>
+    <t>    (sea-slug, blue, pointer),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (egret, white, move) </t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    .#{$animal}-icon {</t>
+  </si>
+  <si>
+    <t>        background-image: url('/images/#{$animal}.png');</t>
+  </si>
+  <si>
+    <t>        border: 2px solid $color;</t>
+  </si>
+  <si>
+    <t>        cursor: $cursor;</t>
+  </si>
+  <si>
+    <t>04-each-02.css</t>
+  </si>
+  <si>
+    <t>  background-image: url("/images/puma.png");</t>
+  </si>
+  <si>
+    <t>  border: 2px solid black;</t>
+  </si>
+  <si>
+    <t>  cursor: default; }</t>
+  </si>
+  <si>
+    <t>  background-image: url("/images/sea-slug.png");</t>
+  </si>
+  <si>
+    <t>  border: 2px solid blue;</t>
+  </si>
+  <si>
+    <t>  cursor: pointer; }</t>
+  </si>
+  <si>
+    <t>  background-image: url("/images/egret.png");</t>
+  </si>
+  <si>
+    <t>  border: 2px solid white;</t>
+  </si>
+  <si>
+    <t>  cursor: move; }</t>
+  </si>
+  <si>
+    <t>04-each-03.scss</t>
+  </si>
+  <si>
+    <t>// $headerMap: (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//  h1: 55px, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//  h2: 50px, </t>
+  </si>
+  <si>
+    <t>$map: (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h1: 55px, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h2: 50px, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h3: 40px, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    p: 20px, </t>
+  </si>
+  <si>
+    <t>    h5: 10px</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>@each $key, $value in $map {</t>
+  </si>
+  <si>
+    <t>    #{$key} {</t>
+  </si>
+  <si>
+    <t>        font-size: #{$value};</t>
+  </si>
+  <si>
+    <t>04-each-03.css</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -397,6 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23139362-4412-4762-991B-A15A83FF1700}">
   <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,4 +2182,1169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989D5AB-E6E5-4804-A365-9DCFAE674A1B}">
+  <dimension ref="A2:L146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="M143" sqref="M143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="E99" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127" s="10"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>